--- a/Introduction Materials/Lab Schedule 2024.xlsx
+++ b/Introduction Materials/Lab Schedule 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamsoliman/Documents/GitHub/Econometrics-Slides/Introduction Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A10AC95-5286-CB45-985D-3A910206AEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D13722-AE07-634E-BC0D-FA21992898A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19480" xr2:uid="{1103A02E-6F1A-EC41-B75E-F74E9889530B}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15180" xr2:uid="{1103A02E-6F1A-EC41-B75E-F74E9889530B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>RCTs</t>
-  </si>
-  <si>
-    <t>IPW and Weighting</t>
   </si>
   <si>
     <t xml:space="preserve">Lab </t>
@@ -456,7 +453,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -487,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -523,7 +520,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -559,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -568,7 +565,7 @@
         <v>45580</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -601,7 +598,7 @@
         <v>45601</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -613,7 +610,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -646,7 +643,7 @@
         <v>45629</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
